--- a/medicine/Psychotrope/Adelscott/Adelscott.xlsx
+++ b/medicine/Psychotrope/Adelscott/Adelscott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelscott est une marque de bière d'origine alsacienne appartenant aujourd'hui au groupe Heineken. Il s'agit d'une bière ambrée aromatisée au malt à whisky.
 Créée par Gilbert Dellinger, elle fut lancée en 1981 par la brasserie Adelshoffen installée à Schiltigheim dans le Bas-Rhin. 
@@ -488,7 +500,7 @@
 Il a existé plusieurs recettes de cette bière, avec des différences au niveau des ingrédients et du degré d'alcool :
 une recette à 6,6% contenant effectivement une proportion de malt à whisky, ainsi que du maïs, du sucre, du caramel, des arômes (sans précision), du houblon et un antioxydant (acide ascorbique). Cette version n'est désormais plus produite depuis 2006.
 la recette actuelle (depuis 2006) titre désormais 5,8% et n'est plus qu'« aromatisée » au malt à whisky (elle n'en contient donc vraisemblablement plus). En 2015, il existe au moins deux versions proposées à la vente : une contenant du malt d'orge, du maïs, du sucre, un arôme (sans précision), du colorant E150c (caramel ammoniacal) et du houblon ; une autre contenant de la bière (sans précision), du sucre et des arômes (malt à whisky).
-Il existait également une variante brune (à 6,6%) de cette bière, Adelscott Noire[1]. Celle-ci n'est aujourd'hui plus produite.
+Il existait également une variante brune (à 6,6%) de cette bière, Adelscott Noire. Celle-ci n'est aujourd'hui plus produite.
 </t>
         </is>
       </c>
